--- a/Docs/Excel2YamlExample.xlsx
+++ b/Docs/Excel2YamlExample.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\excel2json-1.1.1-standalone.jar.src\ExcelToJsonAddin\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDF15AF-D7B0-4448-9144-A4D28158E26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095CD7AF-5ADF-4409-B91E-5A50A29EA5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26800" yWindow="2860" windowWidth="21780" windowHeight="15370" activeTab="1" xr2:uid="{1086760D-55FC-4261-802C-DBF859F5A275}"/>
+    <workbookView xWindow="-38510" yWindow="-90" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{1086760D-55FC-4261-802C-DBF859F5A275}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sheet1" sheetId="4" r:id="rId1"/>
     <sheet name="!Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="excel2yamlconfig" sheetId="5" state="hidden" r:id="rId3"/>
     <sheet name="!Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="!Sheet4" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="70">
   <si>
     <t>$[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +219,98 @@
   </si>
   <si>
     <t>YamlEmptyFields</t>
+  </si>
+  <si>
+    <t>Stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Theme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage${}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option${}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpawnData${}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spawn${}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddMAtkPer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddAttackSpeedPer</t>
+  </si>
+  <si>
+    <t>AddHpPer</t>
+  </si>
+  <si>
+    <t>AddAtkPer</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>!Sheet1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlowStyle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YamlEmptyFields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!Sheet2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!Sheet3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!Sheet4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item${}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -289,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -349,13 +442,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -365,6 +487,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -423,6 +551,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,22 +926,22 @@
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -800,12 +958,12 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
@@ -846,37 +1004,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88EB90B-452C-40F6-AC48-AC3329DE9033}">
   <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -885,14 +1043,14 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
@@ -901,18 +1059,18 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
@@ -941,16 +1099,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
@@ -1018,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F90E82-8552-4DF1-8365-0081DE2D396C}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1036,6 +1194,94 @@
       </c>
       <c r="D1" s="2" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1049,7 +1295,7 @@
   <dimension ref="A2:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A2" sqref="A2:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1066,36 +1312,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -1110,17 +1356,17 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="8" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
@@ -1135,17 +1381,17 @@
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
@@ -1183,19 +1429,19 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
@@ -1277,4 +1523,453 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843566BB-1F0A-4FC9-8D06-A4227121DDEF}">
+  <dimension ref="A2:AC11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>55</v>
+      </c>
+      <c r="S7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="12"/>
+      <c r="Q8" t="s">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
+        <v>1</v>
+      </c>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A10" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>40000001</v>
+      </c>
+      <c r="C11">
+        <v>400</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>402</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11">
+        <v>60</v>
+      </c>
+      <c r="H11">
+        <v>302</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11">
+        <v>40</v>
+      </c>
+      <c r="K11">
+        <v>212</v>
+      </c>
+      <c r="L11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11">
+        <v>25</v>
+      </c>
+      <c r="N11">
+        <v>102</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11">
+        <v>25</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>7</v>
+      </c>
+      <c r="T11">
+        <v>60120</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="B3:T3"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E5:P5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="A10:T10"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="L8:M8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Docs/Excel2YamlExample.xlsx
+++ b/Docs/Excel2YamlExample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\excel2json-1.1.1-standalone.jar.src\ExcelToJsonAddin\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Excel2Yaml\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095CD7AF-5ADF-4409-B91E-5A50A29EA5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2C3AF9-7E7D-4CCC-A5B4-7313B074C6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-90" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{1086760D-55FC-4261-802C-DBF859F5A275}"/>
+    <workbookView xWindow="-38510" yWindow="130" windowWidth="38620" windowHeight="21100" activeTab="5" xr2:uid="{1086760D-55FC-4261-802C-DBF859F5A275}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sheet1" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="excel2yamlconfig" sheetId="5" state="hidden" r:id="rId3"/>
     <sheet name="!Sheet3" sheetId="3" r:id="rId4"/>
     <sheet name="!Sheet4" sheetId="6" r:id="rId5"/>
+    <sheet name="!Sheet4_1" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="86">
   <si>
     <t>$[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,10 +290,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>|</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>YamlEmptyFields</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,13 +308,64 @@
   <si>
     <t>Item${}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[]</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>${}</t>
+  </si>
+  <si>
+    <t>Stage${}</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>SpawnData${}</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Spawn${}</t>
+  </si>
+  <si>
+    <t>Item${}</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Option${}</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>AddMAtkPer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,8 +397,28 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,8 +449,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF32CD32"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -471,13 +554,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -553,39 +689,51 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{17A3F59A-C669-4F37-AC0A-C1303576432A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1204,7 +1352,7 @@
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -1212,7 +1360,7 @@
         <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -1220,21 +1368,21 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1242,21 +1390,21 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -1264,7 +1412,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
         <v>63</v>
@@ -1275,10 +1423,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -1529,7 +1677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843566BB-1F0A-4FC9-8D06-A4227121DDEF}">
   <dimension ref="A2:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6:G6"/>
     </sheetView>
   </sheetViews>
@@ -1539,80 +1687,80 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
@@ -1627,26 +1775,26 @@
       <c r="D5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25" t="s">
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
@@ -1661,34 +1809,34 @@
       <c r="D6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="34" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="34" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="34" t="s">
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
       <c r="Q6" t="s">
         <v>53</v>
       </c>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
@@ -1703,26 +1851,26 @@
       <c r="D7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
+      <c r="E7" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
       <c r="Q7" t="s">
         <v>1</v>
       </c>
@@ -1789,15 +1937,15 @@
       <c r="T8" t="s">
         <v>1</v>
       </c>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="25"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
@@ -1862,28 +2010,28 @@
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B11">
@@ -1946,6 +2094,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="A10:T10"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="B3:T3"/>
     <mergeCell ref="B4:T4"/>
@@ -1958,18 +2114,490 @@
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="R6:T6"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="A10:T10"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="F8:G8"/>
     <mergeCell ref="H7:J7"/>
-    <mergeCell ref="I8:J8"/>
     <mergeCell ref="K7:M7"/>
-    <mergeCell ref="L8:M8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F242248D-C56B-45F9-A773-DD597C9377C8}">
+  <dimension ref="A1:T11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="1.58203125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="36" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="36" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="36" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="36" customWidth="1"/>
+    <col min="7" max="7" width="5.25" style="36" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="17.25" style="36" customWidth="1"/>
+    <col min="10" max="10" width="5.25" style="36" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="36" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="36" customWidth="1"/>
+    <col min="13" max="13" width="5.25" style="36" customWidth="1"/>
+    <col min="14" max="14" width="3.6640625" style="36" customWidth="1"/>
+    <col min="15" max="15" width="9.58203125" style="36" customWidth="1"/>
+    <col min="16" max="16" width="5.25" style="36" customWidth="1"/>
+    <col min="17" max="17" width="1.58203125" style="36" customWidth="1"/>
+    <col min="18" max="18" width="3.75" style="36" customWidth="1"/>
+    <col min="19" max="19" width="4.83203125" style="36" customWidth="1"/>
+    <col min="20" max="20" width="5.5" style="36" customWidth="1"/>
+    <col min="21" max="16384" width="8.6640625" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="39"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="42"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="42"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="42"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="41"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="41"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" s="41"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="S6" s="41"/>
+      <c r="T6" s="42"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="41"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" s="41"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="R7" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="S7" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="T7" s="35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="42"/>
+      <c r="H8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="K8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="42"/>
+      <c r="N8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="S8" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="T8" s="35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N9" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q9" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="R9" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="S9" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="T9" s="35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35">
+        <v>40000001</v>
+      </c>
+      <c r="C11" s="35">
+        <v>400</v>
+      </c>
+      <c r="D11" s="35">
+        <v>1</v>
+      </c>
+      <c r="E11" s="35">
+        <v>402</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="35">
+        <v>60</v>
+      </c>
+      <c r="H11" s="35">
+        <v>302</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="35">
+        <v>40</v>
+      </c>
+      <c r="K11" s="35">
+        <v>212</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="35">
+        <v>25</v>
+      </c>
+      <c r="N11" s="35">
+        <v>102</v>
+      </c>
+      <c r="O11" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="35">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="35">
+        <v>1</v>
+      </c>
+      <c r="R11" s="35">
+        <v>2</v>
+      </c>
+      <c r="S11" s="35">
+        <v>7</v>
+      </c>
+      <c r="T11" s="35">
+        <v>60120</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A10:T10"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="B3:T3"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="E5:P5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="R6:T6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
 </file>